--- a/TOC/Advanced Java and DSA TOC.xlsx
+++ b/TOC/Advanced Java and DSA TOC.xlsx
@@ -66,10 +66,10 @@
     <t>Total Training Duration</t>
   </si>
   <si>
-    <t>11 days</t>
-  </si>
-  <si>
-    <t>44 hours</t>
+    <t>12 days</t>
+  </si>
+  <si>
+    <t>48 hours</t>
   </si>
   <si>
     <t>Topics</t>
@@ -261,7 +261,7 @@
     <t>8. Summary</t>
   </si>
   <si>
-    <t>Day 3</t>
+    <t>Day 3-4</t>
   </si>
   <si>
     <t>Spring Boot Fundamentals            REST Fundamentals             Components of RESTful Web Services                                         Spring Boot CLI                        Initializing a Spring Boot Project                                                                    Spring Boot Actuator                                                    Spring Boot Developer Tools Spring Boot Testing</t>
@@ -476,7 +476,7 @@
     <t>3. Testing Error Handling</t>
   </si>
   <si>
-    <t>Day 4</t>
+    <t>Day 9</t>
   </si>
   <si>
     <t>Spring AOP Fundamentals  Cross-Cutting Concerns  AspectJ Annotations  Spring AOP Proxies
@@ -1823,7 +1823,7 @@
   <dimension ref="A4:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1871,10 +1871,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="25">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" ht="29.75" spans="6:9">
@@ -2514,7 +2514,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A61"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2988,7 +2988,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3154,9 +3154,9 @@
   <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
